--- a/public/docs/Tabela_Simulacao_Rendimentos.xlsx
+++ b/public/docs/Tabela_Simulacao_Rendimentos.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -566,6 +566,21 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,21 +616,6 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -916,7 +916,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -933,15 +933,15 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1">
       <c r="B3" s="6" t="s">
@@ -972,25 +972,25 @@
       </c>
       <c r="C4" s="10">
         <f>C22</f>
-        <v>19.899999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="D4" s="11">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E4" s="12">
         <f>C4*D4</f>
-        <v>199</v>
+        <v>4380</v>
       </c>
       <c r="F4" s="10">
         <f>(E4*4.99%)+0.4*D4</f>
-        <v>13.930099999999999</v>
-      </c>
-      <c r="G4" s="43">
+        <v>298.56200000000001</v>
+      </c>
+      <c r="G4" s="48">
         <v>598.79999999999995</v>
       </c>
       <c r="H4" s="13">
         <f>E4-F4</f>
-        <v>185.06989999999999</v>
+        <v>4081.4380000000001</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -999,23 +999,23 @@
       </c>
       <c r="C5" s="3">
         <f>C23</f>
-        <v>27.9</v>
+        <v>39.9</v>
       </c>
       <c r="D5" s="4">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" si="0">C5*D5</f>
-        <v>837</v>
+        <v>11970</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="1">(E5*4.99%)+0.4*D5</f>
-        <v>53.766300000000001</v>
-      </c>
-      <c r="G5" s="44"/>
+        <v>717.303</v>
+      </c>
+      <c r="G5" s="49"/>
       <c r="H5" s="15">
         <f t="shared" ref="H5:H6" si="2">E5-F5</f>
-        <v>783.2337</v>
+        <v>11252.697</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1">
@@ -1024,41 +1024,41 @@
       </c>
       <c r="C6" s="17">
         <f>C24</f>
-        <v>39.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D6" s="18">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>1995</v>
+        <v>35950</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" si="1"/>
-        <v>119.5505</v>
-      </c>
-      <c r="G6" s="45"/>
+        <v>1993.905</v>
+      </c>
+      <c r="G6" s="50"/>
       <c r="H6" s="20">
         <f t="shared" si="2"/>
-        <v>1875.4494999999999</v>
+        <v>33956.095000000001</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="26">
         <f>SUM(D4:D6)</f>
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="23">
         <f t="shared" ref="E7:F7" si="3">SUM(E4:E6)</f>
-        <v>3031</v>
+        <v>52300</v>
       </c>
       <c r="F7" s="23">
         <f t="shared" si="3"/>
-        <v>187.24689999999998</v>
+        <v>3009.77</v>
       </c>
       <c r="G7" s="23">
         <f>G4</f>
@@ -1066,26 +1066,26 @@
       </c>
       <c r="H7" s="24">
         <f>SUM(H4:H6)-G7</f>
-        <v>2244.9530999999997</v>
+        <v>48691.43</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="25">
         <f>D7/12</f>
-        <v>7.5</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:H8" si="4">E7/12</f>
-        <v>252.58333333333334</v>
+        <v>4358.333333333333</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="4"/>
-        <v>15.603908333333331</v>
+        <v>250.81416666666667</v>
       </c>
       <c r="G8" s="21">
         <f>G7/12</f>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H8" s="22">
         <f t="shared" si="4"/>
-        <v>187.07942499999999</v>
+        <v>4057.6191666666668</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1"/>
@@ -1101,39 +1101,39 @@
       <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="54">
         <v>3000</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:10">
@@ -1220,15 +1220,15 @@
       <c r="H18" s="30"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="34" t="s">
@@ -1252,11 +1252,11 @@
         <v>2</v>
       </c>
       <c r="C22" s="31">
-        <v>19.899999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="D22" s="32">
-        <f>27/3</f>
-        <v>9</v>
+        <f>C22/3</f>
+        <v>7.3</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="31"/>
@@ -1268,16 +1268,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="31">
-        <v>27.9</v>
+        <v>39.9</v>
       </c>
       <c r="D23" s="32">
-        <f>45/6</f>
-        <v>7.5</v>
-      </c>
-      <c r="E23" s="38">
-        <f>100 - ((C23*100)/(($C$22*6)/3))</f>
-        <v>29.899497487437188</v>
-      </c>
+        <f>C23/6</f>
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="E23" s="38"/>
       <c r="F23" s="31"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -1287,16 +1284,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="31">
-        <v>39.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D24" s="32">
-        <f>78/12</f>
-        <v>6.5</v>
-      </c>
-      <c r="E24" s="38">
-        <f>100-(C24*100)/((C22*12)/3)</f>
-        <v>49.874371859296481</v>
-      </c>
+        <f>C24/12</f>
+        <v>5.9916666666666671</v>
+      </c>
+      <c r="E24" s="38"/>
       <c r="F24" s="31"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
@@ -1319,16 +1313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/docs/Tabela_Simulacao_Rendimentos.xlsx
+++ b/public/docs/Tabela_Simulacao_Rendimentos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="20730" windowHeight="9975"/>
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -566,21 +566,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,6 +601,21 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -916,7 +916,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -933,15 +933,15 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1">
       <c r="B3" s="6" t="s">
@@ -972,25 +972,25 @@
       </c>
       <c r="C4" s="10">
         <f>C22</f>
-        <v>21.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D4" s="11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <f>C4*D4</f>
-        <v>4380</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10">
         <f>(E4*4.99%)+0.4*D4</f>
-        <v>298.56200000000001</v>
-      </c>
-      <c r="G4" s="48">
+        <v>0</v>
+      </c>
+      <c r="G4" s="43">
         <v>598.79999999999995</v>
       </c>
       <c r="H4" s="13">
         <f>E4-F4</f>
-        <v>4081.4380000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -999,23 +999,23 @@
       </c>
       <c r="C5" s="3">
         <f>C23</f>
-        <v>39.9</v>
+        <v>27.9</v>
       </c>
       <c r="D5" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" si="0">C5*D5</f>
-        <v>11970</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="1">(E5*4.99%)+0.4*D5</f>
-        <v>717.303</v>
-      </c>
-      <c r="G5" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="44"/>
       <c r="H5" s="15">
         <f t="shared" ref="H5:H6" si="2">E5-F5</f>
-        <v>11252.697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1">
@@ -1024,41 +1024,41 @@
       </c>
       <c r="C6" s="17">
         <f>C24</f>
-        <v>71.900000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="D6" s="18">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>35950</v>
+        <v>0</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" si="1"/>
-        <v>1993.905</v>
-      </c>
-      <c r="G6" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="45"/>
       <c r="H6" s="20">
         <f t="shared" si="2"/>
-        <v>33956.095000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="26">
         <f>SUM(D4:D6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="23">
         <f t="shared" ref="E7:F7" si="3">SUM(E4:E6)</f>
-        <v>52300</v>
+        <v>0</v>
       </c>
       <c r="F7" s="23">
         <f t="shared" si="3"/>
-        <v>3009.77</v>
+        <v>0</v>
       </c>
       <c r="G7" s="23">
         <f>G4</f>
@@ -1066,26 +1066,26 @@
       </c>
       <c r="H7" s="24">
         <f>SUM(H4:H6)-G7</f>
-        <v>48691.43</v>
+        <v>-598.79999999999995</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="25">
         <f>D7/12</f>
-        <v>83.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:H8" si="4">E7/12</f>
-        <v>4358.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="4"/>
-        <v>250.81416666666667</v>
+        <v>0</v>
       </c>
       <c r="G8" s="21">
         <f>G7/12</f>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H8" s="22">
         <f t="shared" si="4"/>
-        <v>4057.6191666666668</v>
+        <v>-49.9</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1"/>
@@ -1101,39 +1101,39 @@
       <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="49">
         <v>3000</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:10">
@@ -1220,15 +1220,15 @@
       <c r="H18" s="30"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="34" t="s">
@@ -1252,11 +1252,11 @@
         <v>2</v>
       </c>
       <c r="C22" s="31">
-        <v>21.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D22" s="32">
         <f>C22/3</f>
-        <v>7.3</v>
+        <v>6.6333333333333329</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="31"/>
@@ -1268,11 +1268,11 @@
         <v>3</v>
       </c>
       <c r="C23" s="31">
-        <v>39.9</v>
+        <v>27.9</v>
       </c>
       <c r="D23" s="32">
         <f>C23/6</f>
-        <v>6.6499999999999995</v>
+        <v>4.6499999999999995</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="31"/>
@@ -1284,11 +1284,11 @@
         <v>4</v>
       </c>
       <c r="C24" s="31">
-        <v>71.900000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="D24" s="32">
         <f>C24/12</f>
-        <v>5.9916666666666671</v>
+        <v>3.3249999999999997</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="31"/>
@@ -1313,16 +1313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/docs/Tabela_Simulacao_Rendimentos.xlsx
+++ b/public/docs/Tabela_Simulacao_Rendimentos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="20730" windowHeight="9975"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>PLANO</t>
   </si>
@@ -63,18 +63,9 @@
     <t>MÊS</t>
   </si>
   <si>
-    <t>ORGANIZZE</t>
-  </si>
-  <si>
     <t>MENSAL</t>
   </si>
   <si>
-    <t>BONUS</t>
-  </si>
-  <si>
-    <t>ALGUNS PLANOS DE OUTROS SISTEMAS</t>
-  </si>
-  <si>
     <t>MEUS PLANOS</t>
   </si>
   <si>
@@ -97,6 +88,21 @@
   </si>
   <si>
     <t>ECONOMIA (%)</t>
+  </si>
+  <si>
+    <t>ANÚNCIOS/PROP.</t>
+  </si>
+  <si>
+    <t>ANÚNCIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PÚBLICO </t>
+  </si>
+  <si>
+    <t>% ALVO</t>
+  </si>
+  <si>
+    <t>TOTAL PÚBLICO</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -485,6 +491,30 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -496,16 +526,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,18 +545,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,15 +569,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,17 +583,39 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,24 +626,6 @@
     <xf numFmtId="44" fontId="3" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,6 +636,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,7 +659,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -913,421 +962,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J25"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="24" customHeight="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1">
+      <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
-        <f>C22</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="9">
+        <f>C16</f>
+        <v>5.9</v>
+      </c>
+      <c r="D4" s="40">
+        <f>L8</f>
+        <v>1460</v>
+      </c>
+      <c r="E4" s="10">
         <f>C4*D4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
+        <v>8614</v>
+      </c>
+      <c r="F4" s="9">
         <f>(E4*4.99%)+0.4*D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="43">
-        <v>598.79999999999995</v>
-      </c>
-      <c r="H4" s="13">
+        <v>1013.8386</v>
+      </c>
+      <c r="G4" s="48">
+        <v>293.27</v>
+      </c>
+      <c r="H4" s="48">
+        <v>60</v>
+      </c>
+      <c r="I4" s="11">
         <f>E4-F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="14" t="s">
+        <v>7600.1614</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f>C23</f>
-        <v>27.9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+        <f>C17</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D5" s="41">
+        <f>L9</f>
+        <v>2190</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E6" si="0">C5*D5</f>
-        <v>0</v>
+        <v>18177</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="1">(E5*4.99%)+0.4*D5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="15">
-        <f t="shared" ref="H5:H6" si="2">E5-F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B6" s="16" t="s">
+        <v>1783.0322999999999</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:I6" si="2">E5-F5</f>
+        <v>16393.967700000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="39">
+        <v>14600000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
-        <f>C24</f>
-        <v>39.9</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="C6" s="15">
+        <f>C18</f>
+        <v>11.9</v>
+      </c>
+      <c r="D6" s="42">
+        <f>L10</f>
+        <v>3650</v>
+      </c>
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+        <v>43435</v>
+      </c>
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="20">
+        <v>3627.4065000000001</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B7" s="39" t="s">
+        <v>39807.593500000003</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="26">
+      <c r="C7" s="57"/>
+      <c r="D7" s="23">
         <f>SUM(D4:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
+        <v>7300</v>
+      </c>
+      <c r="E7" s="20">
         <f t="shared" ref="E7:F7" si="3">SUM(E4:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
+        <v>70226</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+        <v>6424.2773999999999</v>
+      </c>
+      <c r="G7" s="20">
         <f>G4</f>
-        <v>598.79999999999995</v>
-      </c>
-      <c r="H7" s="24">
-        <f>SUM(H4:H6)-G7</f>
-        <v>-598.79999999999995</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B8" s="41" t="s">
+        <v>293.27</v>
+      </c>
+      <c r="H7" s="36">
+        <f>H4</f>
+        <v>60</v>
+      </c>
+      <c r="I7" s="21">
+        <f>SUM(I4:I6)-(G4+H7)</f>
+        <v>63448.452600000011</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="39">
+        <f>L5*L6%/10</f>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="25">
+      <c r="C8" s="59"/>
+      <c r="D8" s="22">
         <f>D7/12</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" ref="E8:H8" si="4">E7/12</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
+        <v>608.33333333333337</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" ref="E8:I8" si="4">E7/12</f>
+        <v>5852.166666666667</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
+        <v>535.35645</v>
+      </c>
+      <c r="G8" s="18">
         <f>G7/12</f>
-        <v>49.9</v>
-      </c>
-      <c r="H8" s="22">
+        <v>24.439166666666665</v>
+      </c>
+      <c r="H8" s="37">
+        <f>H4/12</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="19">
         <f t="shared" si="4"/>
-        <v>-49.9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="11" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B11" s="27" t="s">
+        <v>5287.3710500000007</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="39">
+        <f>L7*M8%</f>
+        <v>1460</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="39">
+        <f>L7*M9%</f>
+        <v>2190</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1">
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="39">
+        <f>L7*M10%</f>
+        <v>3650</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="30.75" thickBot="1">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="46">
         <v>3000</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="M11">
+        <f>SUM(M8:M10)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
-      <c r="E14" s="51" t="s">
-        <v>17</v>
-      </c>
+      <c r="E14" s="51"/>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="30" t="s">
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="31">
-        <v>29.7</v>
-      </c>
-      <c r="D15" s="32">
-        <f>C15/3</f>
-        <v>9.9</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="31">
-        <v>12.5</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="30" t="s">
+      <c r="C16" s="27">
+        <f>Plan3!D2</f>
+        <v>5.9</v>
+      </c>
+      <c r="D16" s="28">
+        <f>C16/3</f>
+        <v>1.9666666666666668</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31">
-        <v>53.4</v>
-      </c>
-      <c r="D16" s="32">
-        <f>C16/6</f>
-        <v>8.9</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="31">
-        <v>35</v>
-      </c>
-      <c r="G16" s="31">
-        <f>F16/3</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="30" t="s">
+      <c r="C17" s="27">
+        <f>Plan3!D3</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D17" s="28">
+        <f>C17/6</f>
+        <v>1.3833333333333335</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="31">
-        <v>94.8</v>
-      </c>
-      <c r="D17" s="32">
-        <f>C17/12</f>
-        <v>7.8999999999999995</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="31">
-        <v>62</v>
-      </c>
-      <c r="G17" s="31">
-        <f>F17/6</f>
-        <v>10.333333333333334</v>
-      </c>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="31">
-        <v>111.5</v>
-      </c>
-      <c r="G18" s="31">
-        <f>F18/12</f>
-        <v>9.2916666666666661</v>
-      </c>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="34" t="s">
+      <c r="C18" s="27">
+        <f>Plan3!D4</f>
+        <v>11.9</v>
+      </c>
+      <c r="D18" s="28">
+        <f>C18/12</f>
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="27">
+        <f>D19*24</f>
         <v>0</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="31">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D22" s="32">
-        <f>C22/3</f>
-        <v>6.6333333333333329</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="31">
-        <v>27.9</v>
-      </c>
-      <c r="D23" s="32">
-        <f>C23/6</f>
-        <v>4.6499999999999995</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="31">
-        <v>39.9</v>
-      </c>
-      <c r="D24" s="32">
-        <f>C24/12</f>
-        <v>3.3249999999999997</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="31">
-        <f>D25*24</f>
+      <c r="D19" s="28">
         <v>0</v>
       </c>
-      <c r="D25" s="32">
-        <v>0</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="F11:H11"/>
+  <mergeCells count="9">
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
+  <conditionalFormatting sqref="I7:I8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G7" formula="1"/>
+    <ignoredError sqref="G7 H8" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1348,48 +1388,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.75">
-      <c r="B2" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="B3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="27">
         <v>49.9</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="27">
         <f>C3*12</f>
         <v>598.79999999999995</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="27">
         <v>20.3</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="27">
         <f>C4*12</f>
         <v>243.60000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="B5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="27">
         <v>27.9</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="27">
         <f>C5*12</f>
         <v>334.79999999999995</v>
       </c>
@@ -1402,12 +1442,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5.9</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2/C2</f>
+        <v>1.9666666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E4" si="0">D3/C3</f>
+        <v>1.3833333333333335</v>
+      </c>
+      <c r="F3">
+        <f>(D2*C3)/C2</f>
+        <v>11.800000000000002</v>
+      </c>
+      <c r="G3" s="38">
+        <f>100-(D3*100)/F3</f>
+        <v>29.661016949152554</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>11.9</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="F4">
+        <f>(D2*C4)/C2</f>
+        <v>23.600000000000005</v>
+      </c>
+      <c r="G4" s="38">
+        <f>100-(D4*100)/F4</f>
+        <v>49.576271186440685</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>